--- a/biology/Médecine/1776_en_santé_et_médecine/1776_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1776_en_santé_et_médecine/1776_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1776_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1776_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1776 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1776_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1776_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>29 avril : arrêt du conseil du roi Louis XVI qui crée la Commission de médecine à Paris pour tenir une correspondance avec les médecins de province pour tout ce qui peut être relatif aux maladies épidémiques et épizootiques[1]. Par fusion avec la Commission royale de médecine pour l'examen des remèdes particuliers et la distribution des eaux minérales, elle deviendra la Société royale de médecine.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>29 avril : arrêt du conseil du roi Louis XVI qui crée la Commission de médecine à Paris pour tenir une correspondance avec les médecins de province pour tout ce qui peut être relatif aux maladies épidémiques et épizootiques. Par fusion avec la Commission royale de médecine pour l'examen des remèdes particuliers et la distribution des eaux minérales, elle deviendra la Société royale de médecine.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1776_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1776_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,9 +555,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>25 janvier : lecture d'une communication à la Royal Society de Joseph Priestley (1732-1804), intitulée Observations on Respiration and the Use of the Blood, qui décrit le lien entre respiration, sang et air[2]. La communication de Priestley est tout d'abord publiée dans le Philosophical Transactions, la revue de la Royal Society.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>25 janvier : lecture d'une communication à la Royal Society de Joseph Priestley (1732-1804), intitulée Observations on Respiration and the Use of the Blood, qui décrit le lien entre respiration, sang et air. La communication de Priestley est tout d'abord publiée dans le Philosophical Transactions, la revue de la Royal Society.</t>
         </is>
       </c>
     </row>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1776_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1776_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Médaille Copley : James Cook (1728-1779), pour un article décrivant la méthode qu'il utilise pour préserver la santé de l'équipage du HMS Resolution.</t>
         </is>
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1776_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1776_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,19 +619,21 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10 janvier : George Birkbeck (mort en 1841), médecin britannique[3].
-16 janvier : Louis-Antoine Planche (mort en 1840), pharmacien français[4],[5].
-4 février : Gottfried Reinhold Treviranus (mort en 1837), médecin et mathématicien allemand[6].
-15 mars : Gerard Troost (mort en 1850), médecin, naturaliste et minéralogiste américano-néerlandais[7].
-3 avril : François Blanchet (mort en 1830), médecin, propriétaire de biens seigneuriaux et homme politique du Bas-Canada[8].
-9 juin : Louis Berlioz (mort en 1848), médecin français, père du compositeur Hector Berlioz et connu comme introducteur de l'acupuncture en France[9].
-17 juin : Jean-Baptiste Clémot (mort en 1852), chirurgien de 1re classe de la Marine et député de la Charente-Maritime en 1815[10].
-16 juillet : Ludwig Heinrich Bojanus, (mort en 1827), médecin et naturaliste allemand[11].
-29 juillet : Mathieu François Maxence Audouard (mort en 1856), médecin français[12].
-14 novembre : Henri Dutrochet (mort en 1847), médecin, botaniste et physiologiste français[13].
-12 décembre : Antoine Chéreau (mort en 1848), pharmacien français[14].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>10 janvier : George Birkbeck (mort en 1841), médecin britannique.
+16 janvier : Louis-Antoine Planche (mort en 1840), pharmacien français,.
+4 février : Gottfried Reinhold Treviranus (mort en 1837), médecin et mathématicien allemand.
+15 mars : Gerard Troost (mort en 1850), médecin, naturaliste et minéralogiste américano-néerlandais.
+3 avril : François Blanchet (mort en 1830), médecin, propriétaire de biens seigneuriaux et homme politique du Bas-Canada.
+9 juin : Louis Berlioz (mort en 1848), médecin français, père du compositeur Hector Berlioz et connu comme introducteur de l'acupuncture en France.
+17 juin : Jean-Baptiste Clémot (mort en 1852), chirurgien de 1re classe de la Marine et député de la Charente-Maritime en 1815.
+16 juillet : Ludwig Heinrich Bojanus, (mort en 1827), médecin et naturaliste allemand.
+29 juillet : Mathieu François Maxence Audouard (mort en 1856), médecin français.
+14 novembre : Henri Dutrochet (mort en 1847), médecin, botaniste et physiologiste français.
+12 décembre : Antoine Chéreau (mort en 1848), pharmacien français.</t>
         </is>
       </c>
     </row>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1776_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1776_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,11 +661,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>13 juin : William Battie (né en 1703), médecin aliéniste anglais[15].
-28 juin : Augustin Roux (né en 1726), médecin français[16].
-5 septembre : Anton de Haen (né en 1704), médecin autrichien, chef de la médecine clinique de l'Université de Vienne[17].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>13 juin : William Battie (né en 1703), médecin aliéniste anglais.
+28 juin : Augustin Roux (né en 1726), médecin français.
+5 septembre : Anton de Haen (né en 1704), médecin autrichien, chef de la médecine clinique de l'Université de Vienne.</t>
         </is>
       </c>
     </row>
